--- a/Character/CharacterSheet.xlsx
+++ b/Character/CharacterSheet.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="70">
   <si>
     <t>Speed &amp; D Character</t>
   </si>
@@ -127,40 +127,202 @@
     <t>Mental:</t>
   </si>
   <si>
+    <t>Combat</t>
+  </si>
+  <si>
     <t>Perception:</t>
   </si>
   <si>
     <t>Physical:</t>
   </si>
   <si>
-    <t> □ Forgery</t>
+    <t>□ Forgery</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Total </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="00000000"/>
+        <sz val="9"/>
+      </rPr>
+      <t xml:space="preserve">=</t>
+    </r>
+  </si>
+  <si>
+    <t>Misc</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="00C0C0C0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">Str</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="00000000"/>
+        <sz val="6"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="00C0C0C0"/>
+        <sz val="6"/>
+      </rPr>
+      <t xml:space="preserve">Physical</t>
+    </r>
   </si>
   <si>
     <t>Saves</t>
   </si>
   <si>
-    <t> □ Ride</t>
+    <t>□ Ride</t>
   </si>
   <si>
     <t>Deception:</t>
   </si>
   <si>
+    <t>Dodge</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="00C0C0C0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">Dex</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="00000000"/>
+        <sz val="7"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="00C0C0C0"/>
+        <sz val="7"/>
+      </rPr>
+      <t xml:space="preserve">Reflex</t>
+    </r>
+  </si>
+  <si>
     <t>Fortitude:</t>
   </si>
   <si>
     <t>Con:</t>
   </si>
   <si>
-    <t> □ Swim</t>
+    <t>□ Swim</t>
+  </si>
+  <si>
+    <t>Resist</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="00C0C0C0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">Fort</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="00000000"/>
+        <sz val="7"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="00C0C0C0"/>
+        <sz val="7"/>
+      </rPr>
+      <t xml:space="preserve">Armor</t>
+    </r>
   </si>
   <si>
     <t>Reflex:</t>
   </si>
   <si>
-    <t> □ Tumble</t>
-  </si>
-  <si>
-    <t> □ Slight of Hand</t>
+    <t>□ Tumble</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">□</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <i val="true"/>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve"> Slight of Hand</t>
+    </r>
   </si>
   <si>
     <t>Willpower:</t>
@@ -200,9 +362,10 @@
   <numFmts count="1">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="17">
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -223,6 +386,7 @@
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <b val="true"/>
       <sz val="15"/>
@@ -230,23 +394,83 @@
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <b val="true"/>
       <sz val="10"/>
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="7"/>
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <i val="true"/>
       <sz val="10"/>
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="00C0C0C0"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="00000000"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="00C0C0C0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="00000000"/>
+      <sz val="6"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="00C0C0C0"/>
+      <sz val="6"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="00000000"/>
+      <sz val="7"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="00C0C0C0"/>
+      <sz val="7"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <i val="true"/>
       <sz val="8"/>
@@ -260,7 +484,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="35">
     <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
@@ -269,42 +493,42 @@
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="medium"/>
-      <right/>
-      <top style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick"/>
+      <right/>
+      <top style="thick"/>
       <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
-      <top style="medium"/>
+      <top style="thick"/>
       <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
       <left style="hair"/>
       <right/>
-      <top style="medium"/>
+      <top style="thick"/>
       <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
       <left/>
-      <right style="medium"/>
-      <top style="medium"/>
+      <right style="thick"/>
+      <top style="thick"/>
       <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
-      <left style="medium"/>
+      <left style="thick"/>
       <right/>
       <top/>
       <bottom style="hair"/>
@@ -326,135 +550,184 @@
     </border>
     <border diagonalDown="false" diagonalUp="false">
       <left/>
-      <right style="medium"/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left/>
+      <right style="thick"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick"/>
+      <right/>
+      <top/>
+      <bottom style="thick"/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="hair"/>
+      <right/>
+      <top/>
+      <bottom style="thick"/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick"/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left/>
+      <right style="thick"/>
+      <top/>
+      <bottom style="thick"/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick"/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="hair"/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="hair"/>
+      <right style="thick"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left/>
+      <right/>
+      <top style="thick"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick"/>
+      <right style="thick"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
-      <left style="medium"/>
-      <right/>
+      <left style="hair"/>
+      <right style="thick"/>
       <top/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="hair"/>
-      <right/>
-      <top/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left/>
-      <right style="medium"/>
-      <top/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="medium"/>
-      <right/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="hair"/>
       <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
+      <left style="thick"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
       <left style="hair"/>
       <right/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
       <left style="hair"/>
-      <right style="medium"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="medium"/>
-      <right style="medium"/>
+      <right/>
       <top style="hair"/>
       <bottom/>
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
-      <left style="medium"/>
-      <right style="medium"/>
+      <left/>
+      <right style="thick"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="hair"/>
+      <right style="thick"/>
       <top/>
+      <bottom style="thick"/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
       <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
-      <left style="hair"/>
-      <right style="medium"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="medium"/>
-      <right/>
-      <top/>
-      <bottom/>
+      <left style="thick"/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
       <left/>
-      <right style="medium"/>
+      <right/>
       <top style="hair"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="medium"/>
-      <right style="medium"/>
+      <bottom style="thick"/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left/>
+      <right style="thick"/>
       <top style="hair"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="hair"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="hair"/>
-      <right style="medium"/>
-      <top/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left/>
-      <right/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
   </borders>
@@ -483,15 +756,14 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="47">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="3" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="4" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
@@ -500,57 +772,72 @@
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="7" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="8" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="9" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="10" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="10" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="11" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="12" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="12" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="13" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="14" fillId="0" fontId="5" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="14" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="15" fillId="0" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="16" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="17" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="15" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="16" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="14" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="17" fillId="0" fontId="6" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="18" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="19" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="20" fillId="0" fontId="6" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="18" fillId="0" fontId="6" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="21" fillId="0" fontId="6" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="19" fillId="0" fontId="5" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="22" fillId="0" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="20" fillId="0" fontId="6" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="23" fillId="0" fontId="6" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="6" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="21" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="22" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="23" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="24" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="22" fillId="0" fontId="7" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="25" fillId="0" fontId="7" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="25" fillId="0" fontId="8" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="26" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="22" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="24" fillId="0" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="27" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="14" fillId="0" fontId="5" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="9" fillId="0" fontId="8" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="9" fillId="0" fontId="10" numFmtId="164" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="10" fillId="0" fontId="10" numFmtId="164" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="25" fillId="0" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="26" fillId="0" fontId="7" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="27" fillId="0" fontId="7" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="27" fillId="0" fontId="7" numFmtId="164" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="28" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="29" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="30" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="31" fillId="0" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="25" fillId="0" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="15" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="32" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="33" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="34" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="11" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -568,17 +855,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A27" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="H50" activeCellId="0" pane="topLeft" sqref="H50"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="L21" activeCellId="0" pane="topLeft" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="10" min="6" style="0" width="5.85882352941176"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -588,8 +877,11 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -597,9 +889,12 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="3"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="4">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -611,11 +906,11 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="5">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -623,43 +918,49 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
-      <c r="A6" s="4" t="s">
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="6">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
-      <c r="A7" s="8" t="s">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="7">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="8">
       <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
@@ -674,9 +975,12 @@
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="9">
       <c r="A9" s="16" t="s">
         <v>14</v>
       </c>
@@ -686,16 +990,19 @@
       <c r="C9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="10">
       <c r="A10" s="19" t="s">
         <v>19</v>
       </c>
@@ -708,9 +1015,12 @@
       <c r="F10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="15"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="11">
       <c r="A11" s="19" t="s">
         <v>21</v>
       </c>
@@ -720,64 +1030,79 @@
         <v>22</v>
       </c>
       <c r="E11" s="20"/>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="12">
       <c r="A12" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="18"/>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="13">
       <c r="A13" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="18"/>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="14">
       <c r="A14" s="19" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
-      <c r="A15" s="23" t="s">
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="15">
+      <c r="A15" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="16">
       <c r="A16" s="19" t="s">
         <v>32</v>
       </c>
@@ -787,21 +1112,23 @@
       <c r="C16" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="27"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
+      <c r="F16" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="17">
       <c r="A17" s="19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>13</v>
@@ -809,52 +1136,91 @@
       <c r="C17" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="28" t="s">
+      <c r="D17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="29"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
-      <c r="A18" s="30" t="s">
+      <c r="E17" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31" t="s">
+      <c r="F17" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="G17" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="29"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
+      <c r="H17" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="18">
+      <c r="A18" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="19">
       <c r="A19" s="19" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="29"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
+        <v>52</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="20">
       <c r="A20" s="19" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>13</v>
@@ -862,380 +1228,506 @@
       <c r="C20" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="29"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
+      <c r="D20" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="37"/>
+      <c r="J20" s="38"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="21">
       <c r="A21" s="12" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="34" t="s">
-        <v>49</v>
+      <c r="C21" s="39" t="s">
+        <v>61</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
-      <c r="G21" s="15"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
-      <c r="A22" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="22">
+      <c r="A22" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="23">
       <c r="A23" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
+        <v>64</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="19"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="29"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="24">
       <c r="A24" s="19" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="37"/>
+        <v>66</v>
+      </c>
+      <c r="C24" s="11"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="29"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="25">
       <c r="A25" s="19"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="17" t="s">
+      <c r="B25" s="10"/>
+      <c r="C25" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="19"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="29"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="26">
       <c r="A26" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
+        <v>64</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="29"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="27">
       <c r="A27" s="19" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="37"/>
+        <v>66</v>
+      </c>
+      <c r="C27" s="11"/>
       <c r="D27" s="19"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="29"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="28">
       <c r="A28" s="19"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="17" t="s">
+      <c r="B28" s="10"/>
+      <c r="C28" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="19"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="29"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="29">
       <c r="A29" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
+        <v>67</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
       <c r="D29" s="19"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="29"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="30">
       <c r="A30" s="19" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="37"/>
+        <v>66</v>
+      </c>
+      <c r="C30" s="11"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="29"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="31">
       <c r="A31" s="19"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="17" t="s">
+      <c r="B31" s="10"/>
+      <c r="C31" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="19"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="29"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="32">
       <c r="A32" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
+        <v>68</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
       <c r="D32" s="19"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="29"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="33">
       <c r="A33" s="19" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="37"/>
+        <v>66</v>
+      </c>
+      <c r="C33" s="11"/>
       <c r="D33" s="19"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="29"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="34">
       <c r="A34" s="19"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="17" t="s">
+      <c r="B34" s="10"/>
+      <c r="C34" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="19"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="29"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
-      <c r="A35" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="35">
+      <c r="A35" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
       <c r="D35" s="19"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="29"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="36">
       <c r="A36" s="19"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
       <c r="D36" s="19"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="29"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="37">
       <c r="A37" s="19"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
       <c r="D37" s="19"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="29"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="38">
       <c r="A38" s="19"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
       <c r="D38" s="19"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="29"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="39">
       <c r="A39" s="19"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
       <c r="D39" s="19"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="29"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="40">
       <c r="A40" s="19"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
       <c r="D40" s="19"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="29"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="41">
       <c r="A41" s="19"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="11"/>
       <c r="D41" s="19"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="29"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="42">
       <c r="A42" s="19"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="11"/>
       <c r="D42" s="19"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="29"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="43">
       <c r="A43" s="19"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="11"/>
       <c r="D43" s="19"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="29"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="44">
       <c r="A44" s="19"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="11"/>
       <c r="D44" s="19"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="29"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="45">
       <c r="A45" s="19"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="11"/>
       <c r="D45" s="19"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="29"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="46">
       <c r="A46" s="19"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="11"/>
       <c r="D46" s="19"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="29"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="47">
       <c r="A47" s="19"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="11"/>
       <c r="D47" s="19"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="29"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="48">
       <c r="A48" s="19"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="11"/>
       <c r="D48" s="19"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="29"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="49">
       <c r="A49" s="19"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="11"/>
       <c r="D49" s="19"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="29"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="50">
       <c r="A50" s="19"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="11"/>
       <c r="D50" s="19"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="29"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="51">
       <c r="A51" s="19"/>
-      <c r="B51" s="37"/>
-      <c r="C51" s="37"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="11"/>
       <c r="D51" s="19"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="29"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="52">
       <c r="A52" s="19"/>
-      <c r="B52" s="37"/>
-      <c r="C52" s="37"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="11"/>
       <c r="D52" s="19"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="29"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="53">
       <c r="A53" s="19"/>
-      <c r="B53" s="37"/>
-      <c r="C53" s="37"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="11"/>
       <c r="D53" s="19"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="29"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
-      <c r="A54" s="12"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="15"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="54">
+      <c r="A54" s="42"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
+      <c r="A55" s="42"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
+      <c r="A56" s="43"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A1:J2"/>
     <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:G5"/>
+    <mergeCell ref="D4:J5"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D14:J14"/>
     <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="F16:J16"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D22:J22"/>
     <mergeCell ref="A35:C35"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1255,17 +1747,17 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1280,17 +1772,17 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
